--- a/Assignment1/Graphs1.xlsx
+++ b/Assignment1/Graphs1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plagl\ci-group-24\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DA2AD66-00A9-45B3-9F91-0EAA53327247}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B54FA48-8618-4169-87A0-DC9625377269}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7550" xr2:uid="{7DA01EC5-A6E8-46FF-890C-89230DA2433A}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7550" activeTab="2" xr2:uid="{7DA01EC5-A6E8-46FF-890C-89230DA2433A}"/>
   </bookViews>
   <sheets>
     <sheet name="AND" sheetId="1" r:id="rId1"/>
@@ -101,37 +101,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -293,6 +263,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -356,6 +381,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -456,37 +536,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -648,6 +698,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -711,6 +816,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -811,37 +971,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1003,6 +1133,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1066,6 +1251,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3242,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13857555-C866-4A98-934C-978272D812FF}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,7 +3587,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3450,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC309B80-4E2A-4404-ACC1-4009A04F1E5C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
